--- a/res/source/const.xlsx
+++ b/res/source/const.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\go\src\github.com\xuzhuoxi\ExcelExporter\res\source\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5CDC2-F5CB-4FF9-AE18-05AD7918AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="导出摘要" sheetId="1" r:id="rId4"/>
-    <sheet name="Const_A" sheetId="2" r:id="rId5"/>
-    <sheet name="Const_B" sheetId="3" r:id="rId6"/>
+    <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
+    <sheet name="——Const_A" sheetId="2" r:id="rId2"/>
+    <sheet name="——Const_B" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -210,11 +219,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -224,27 +230,29 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -292,69 +300,131 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="015E88B1"/>
+      <rgbColor rgb="01EEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -480,7 +550,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -489,7 +559,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -498,7 +568,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -572,7 +642,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -580,7 +650,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -599,7 +669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -629,7 +699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -655,7 +725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -681,7 +751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -707,7 +777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -733,7 +803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -759,7 +829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,7 +907,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,9 +920,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -867,7 +943,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -875,7 +951,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -894,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,9 +1217,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1157,7 +1239,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1176,7 +1258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,7 +1340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,7 +1496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,74 +1509,82 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="4" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="2:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="11" spans="2:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1502,142 +1592,147 @@
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Const_A'!R1C1" tooltip="" display="Const_A"/>
-    <hyperlink ref="D12" location="'Const_B'!R1C1" tooltip="" display="Const_B"/>
+    <hyperlink ref="D10" location="'Const_A'!R1C1" display="Const_A" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Const_B'!R1C1" display="Const_B" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.96094" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.54688" style="6" customWidth="1"/>
-    <col min="3" max="4" width="7.96094" style="6" customWidth="1"/>
-    <col min="5" max="256" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8" style="5" customWidth="1"/>
+    <col min="5" max="256" width="8.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row r="7" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+    <row r="9" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1645,134 +1740,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.96094" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.54688" style="9" customWidth="1"/>
-    <col min="3" max="4" width="7.96094" style="9" customWidth="1"/>
-    <col min="5" max="256" width="8.85156" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="8" customWidth="1"/>
+    <col min="3" max="4" width="8" style="8" customWidth="1"/>
+    <col min="5" max="256" width="8.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row r="7" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+    <row r="9" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/res/source/const.xlsx
+++ b/res/source/const.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Const_常量表" sheetId="5" r:id="rId1"/>
+    <sheet name="Const_测试常量表" sheetId="5" r:id="rId1"/>
+    <sheet name="Const_测试常量表1行" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>int16</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -232,15 +233,64 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Const</t>
+    <t>Const2</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const3</t>
+  </si>
+  <si>
+    <t>Const5</t>
+  </si>
+  <si>
+    <t>Const7</t>
+  </si>
+  <si>
+    <t>Const8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const11</t>
+  </si>
+  <si>
+    <t>Const12</t>
+  </si>
+  <si>
+    <t>Const13</t>
+  </si>
+  <si>
+    <t>Const14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +317,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -631,7 +687,204 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -662,162 +915,204 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="A11" t="s">
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/res/source/const.xlsx
+++ b/res/source/const.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Const_测试常量表" sheetId="5" r:id="rId1"/>
-    <sheet name="Const_测试常量表1行" sheetId="6" r:id="rId2"/>
+    <sheet name="Const_测试常量表多段行" sheetId="6" r:id="rId2"/>
+    <sheet name="Const_测试常量表1行 (2)" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>int16</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -284,6 +285,10 @@
   </si>
   <si>
     <t>Const14</t>
+  </si>
+  <si>
+    <t>Const3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -686,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -1116,4 +1121,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/res/source/const.xlsx
+++ b/res/source/const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Const_测试常量表" sheetId="5" r:id="rId1"/>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>int16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试常量名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -289,6 +285,45 @@
   <si>
     <t>Const3</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game.Cfg.CfgConst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试常量名1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试常量名2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试常量名3</t>
+  </si>
+  <si>
+    <t>测试常量名4</t>
+  </si>
+  <si>
+    <t>测试常量名5</t>
+  </si>
+  <si>
+    <t>测试常量名6</t>
+  </si>
+  <si>
+    <t>测试常量名7</t>
+  </si>
+  <si>
+    <t>测试常量名8</t>
+  </si>
+  <si>
+    <t>测试常量名9</t>
+  </si>
+  <si>
+    <t>测试常量名10</t>
+  </si>
+  <si>
+    <t>测试常量名11</t>
   </si>
 </sst>
 </file>
@@ -691,41 +726,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -734,12 +773,12 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -748,40 +787,40 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -790,12 +829,12 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -804,12 +843,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>21</v>
@@ -818,12 +857,12 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -832,12 +871,12 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>23</v>
@@ -846,12 +885,12 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>24</v>
@@ -860,12 +899,12 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -874,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +928,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -900,220 +939,223 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1127,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1139,38 +1181,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/res/source/const.xlsx
+++ b/res/source/const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Const_测试常量表" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>int16</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -324,6 +324,10 @@
   </si>
   <si>
     <t>测试常量名11</t>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -726,13 +730,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -933,7 +938,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1169,13 +1176,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1189,6 +1197,9 @@
       <c r="C1" t="s">
         <v>34</v>
       </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
